--- a/transgender -HIV.xlsx
+++ b/transgender -HIV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>White JC, Townsend MH. Transgender medicine: issues and definitions. J Gay Lesbian Med Assoc. 1998;2:1–3.</t>
   </si>
@@ -183,13 +183,452 @@
   </si>
   <si>
     <t>30. Institute of Medicine. The health of lesbian, gay, bisexual, and transgender people: Building a foundation for better understanding. Washington, D.C.: National Academies Press; 2011. [PubMed]</t>
+  </si>
+  <si>
+    <t>Block, N. L., &amp; Tessler, A. N. (1973). Transsexualism and surgical procedures. Medical Aspects of Human Sexuality, 7, 158-186.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES American Association of Suicidology. (2001). U.S.A. suicide: 1999 official final data. Retrieved December 10, 2001, from http://www.suicidology.org/ index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bockting, W., Beatrice, O., Robinson, B. E., &amp; Rosser, B.R.S. (1998). Transgender HIV prevention: Aqualitative needs assessment. AIDS Care, 10, 505-526.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bowen, G. (1995). Violence and health poll. (Available from The American Boyz, P. O. Box 1118, Elkton,MD, 21922-1118)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clements, K., Marx, R., Guzman, R., Ikeda, S., &amp; Katz, M. (1998, June). Prevalence of HIV infection in transgendered individuals in San Francisco. Poster session presented at the XII International Conference on AIDS, Geneva, Switzerland.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Article Title: Transgender Health: Findings from Two Needs Assessment Studies in Philadelphia.
+Contributors: Gretchen P. Kenagy - author. Journal Title: Health and Social Work. Volume: 30. Issue: 1. Publication Year: 2005.
+Page Number: 19+. COPYRIGHT 2005 National Association of Social Workers; COPYRIGHT 2005 Gale Group
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clements-Nolle, K., Marx, R., Guzman, R., &amp; Katz, M. (2001). HIV prevalence, risk behaviors, health care use, and mental health status of transgender persons: Implications for public health intervention.American Journal of Public Health, 91, 915-921.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elifson, K. W., Boles, J., Posey, E., Sweat, M., Darrow, W., &amp; Elsea, W. (1993). Male transvestite prostitutes and HIV risk. American Journal of Public Health, 83, 260-262.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gattari, P., Rezza, G., Zaccarelli, M., Valenzi, C., &amp; Tirelli, U. (1991). HIV infection in drug using transvestites and transexuals [Letter to the editor]. European Journal of Epidemiology, 7, 711-712.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender Education and Advocacy, Inc. (2001). Gender variance: A primer. Retrieved November 25, 2002, from http://www.gender.org/resources/dge/ gea01004.pdf</t>
+  </si>
+  <si>
+    <t>Israel, G. E. (1996). Gender issues affect you, too! Information about transgender persons. San Francisco: Human Rights Commission.</t>
+  </si>
+  <si>
+    <t>JSI Research &amp; Training Institute. (2000). Access to health care for transgendered persons in greater Boston. Boston: GLBT Health Access Project.</t>
+  </si>
+  <si>
+    <t>Levine, C. O. (1978). Social work with transsexuals. Social Casework, 59, 167-174.</t>
+  </si>
+  <si>
+    <t>MacKenzie, G. O. (1994). Transgender nation. Bowling Green, OH: Bowling Green State University Popular Press.</t>
+  </si>
+  <si>
+    <t>Modan, B., Goldschmidt, R., Rubinstein, E., Vonsover, A., Zinn, M., Golan, R., Chetrit, A., &amp; Gottlieb-Stematzky, T. (1992). Prevalence of HIV antibodies in transsexual and female prostitutes. American Journal of Public Health, 82, 590-592.</t>
+  </si>
+  <si>
+    <t>National Institute of Allergy and Infectious Diseases. (2002). Fact sheet: HIV/AIDS statistics. Retrieved July 16, 2002, from http://www.niaid.nih.gov/ factsheets/aidsstat.htm</t>
+  </si>
+  <si>
+    <t>Pang, H., Pugh, K., &amp; Catalan, J. (1994). Gender identity disorder and HIV disease. International Journal ofSTD &amp; AIDS, 5, 130-132.</t>
+  </si>
+  <si>
+    <t>Parlee, M. B. (1996). Situated knowledges of personal embodiment: Transgender activists' andpsychological theorists' perspectives on 'sex' and 'gender'. Theory &amp; Psychology, 6, 625-645.</t>
+  </si>
+  <si>
+    <t>Reback, C. J., Simon, P. A., Bemis, C. C., &amp; Gatson, B. (2001). The Los Angeles transgender health study:Community report. Los Angeles: Authors.</t>
+  </si>
+  <si>
+    <t>Singer, B. (1997, November 11). Trans identities: Language has the power to erase or self-define. Au Courant, pp. 3, 17.</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau. (2002). Monthly national population estimates. Retrieved December 3, 2002, from http:// eire.census.gov/popest/data/national/tables/NAEST2001-04.php</t>
+  </si>
+  <si>
+    <t>Wicks, L. K. (1977). Transsexualism: A social work approach. Health &amp; Social Work, 2(1), 179-193.</t>
+  </si>
+  <si>
+    <t>Wilchins, R. A., Lombardi, E., Priesing, D., &amp; Malouf, D. (1997). First national survey of transgender violence. New York: GenderPAC.</t>
+  </si>
+  <si>
+    <r>
+      <t>Xavier, J. M. (2000). The Washington transgender needs assessment survey. Retrieved January 15, 2002,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from http://www.gender.org/vaults/wmas.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">American Psychiatric Association. (2000). Diagnostic and statistical manual of mental disorders (4th ed., Text Revision).Washington, DC: Author. Atrill, R., Kinniburgh, J., &amp; Power, L. (2001). Social exclusion and HIV: A report. Retrieved May 20, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.tht.org.uk/informationresources/publications/policyreports/socialexclusionandhiv582.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bakker, A., Van Kesteren, P. J. M., Gooren, L. J. G., &amp;Bezemer, P. D. (1993). The prevalence of transsexualism in</t>
+  </si>
+  <si>
+    <t>the Netherlands. Acta Psychiatrica Scandinavia, 87, 237-238.</t>
+  </si>
+  <si>
+    <t>Bockting, W.O., &amp; Goldberg, J.M. (2006). Guidelines for transgender care [Published simultaneously by Haworth Medical press as the International Journal of Transgenderism,9].</t>
+  </si>
+  <si>
+    <t>Bockting,W. O., Robinson, B. E., &amp; Rosser, B. R. (1998). Transgender HIV prevention: A qualitative needs assessment. AIDS Care, 10, 505-525.</t>
+  </si>
+  <si>
+    <t>Bockting, W. O., Rosser, B. R. S., &amp; Coleman, E. (2001). Transgender</t>
+  </si>
+  <si>
+    <t>HIV prevention: Community involvement and empowerment. In W. O. Bockting &amp; S. Kirk (Eds.), Transgender and HIV: Risks, Prevention, and care (pp. 119-144). New York: Haworth.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canadian Public Health Association. (2005). Leading together: Canada takes action on HIV/AIDS (2005-2010). Retrieved May 18, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.leadingtogether.ca/pdf/Leading_Together.pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Center of Excellence for Transgender HIV Prevention. (2008). 8best practices for HIV prevention among trans people. Retrieved May 20, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://transhealth.ucsf.edu/pdf/bp-prevention.pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clements, K., Katz, M., &amp; Marx, R. (1999). The Transgender Community Health Project: Descriptive results. Retrieved May 18, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://hivinsite.ucsf.edu/InSite?page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="AdvPS586B"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cftg-02–02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Community Health Scholars Program. (n.d.). Community Health Scholars Program: Goals and competencies. Retrieved May18, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.sph.umich.edu/chsp/program/index.shtml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cope, A., &amp; Darke, J. (1999). Trans accessibility project:Making women’s shelters accessible to transgendered women. Retrieved May 19, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.queensu.ca/humanrights/tap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Currah, P., &amp; Minter, S. (2000). Transgender equality: A handbook for activists and policymakers. Retrieved May 18,2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.thetaskforce.org/downloads/reports/reports/TransgenderEquality.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Dewey, J. M. (2008). Knowledge legitimacy: How trans-patient behavior supports and challenges current medical knowledge. Qualitative Health Research, 18, 1345-1355.</t>
+  </si>
+  <si>
+    <t>Ettner, R. (1999). Gender loving care: A guide to counseling gender-variant clients. New York: Norton.</t>
+  </si>
+  <si>
+    <t>Ettner, R., Monstrey, S., &amp; Eyler, A. E. (Eds.). (2007). Principles of transgender medicine and surgery. New York: Haworth.</t>
+  </si>
+  <si>
+    <t>Feinberg, L. (2001). Trans health crisis: For us it’s life or death. American Journal of Public Health, 91, 897-900.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gapka, S., &amp; Raj, R. (2003). Trans health project: A position paper and resolution adopted by the Ontario Public Health Association (OPHA). Retrieved May 19, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.opha.on.ca/our_voice/ppres/papers/2003-06_pp.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Garofalo, R., Deleon, J., Osmer, E., Doll, M., &amp; Harper, G. W. (2006). Overlooked, misunderstood and at-risk: Exploring the lives and HIV risk of ethnic minority male-to-female transgender youth. Journal of Adolescent Health, 38, 230-236.</t>
+  </si>
+  <si>
+    <t>Glaser, B. G. (1992). Basics of grounded theory analysis: Emergence vs. forcing. Mill Valley, CA: Sociology Press.</t>
+  </si>
+  <si>
+    <t>Haraldsen, I. R., &amp; Dahl, A. A. (2000). Symptom profiles of gender dysphoric patients of transsexual type compared to patients with personality disorders and healthy adults. Acta Psychiatrica Scandinavica, 102, 276-281.</t>
+  </si>
+  <si>
+    <t>Hein, D., &amp; Kirk, M. (2001). Education and soul-searching: The Enterprise HIV Prevention Group. In W. O. Bockting &amp; S. Kirk (Eds.), Transgender and HIV: Risks, prevention, and care (pp. 101-118). New York: Haworth.</t>
+  </si>
+  <si>
+    <t>Herbst, J. H., Jacobs, E. D., Finlayson, T. J., McKleroy, V. S., Neumann, M. S., &amp; Crepaz, N. (2008). Estimating HIV prevalence and risk behaviors of transgender persons in the United States: A systematic review. AIDS and Behavior, 12, 1-17.</t>
+  </si>
+  <si>
+    <t>Hill, D. B. (2003). Genderism, transphobia, and gender bashing: A framework for interpreting anti-transgender violence. In B. C. Wallace &amp; R. T. Carter (Eds.), Understanding and dealing with violence: A multicultural approach (pp. 113-136). Thousand Oaks, CA: Sage.</t>
+  </si>
+  <si>
+    <t>Kenagy, G. (2005). Transgender health: Findings from two needs assessment studies in Philadelphia. Health &amp; Social Work, 30, 19-26.</t>
+  </si>
+  <si>
+    <t>Kirk, S. (2001). Guidelines for selecting HIV-positive patients for genital reconstructive surgery. In W. O. Bockting &amp; S. Kirk (Eds.), Transgender and HIV: Risks, prevention, and care (pp. 161-168). New York: Haworth.</t>
+  </si>
+  <si>
+    <t>Lev, A. I. (2004). Transgender emergence: Therapeutic guidelines for working with gender-variant people and their families. Binghamton, NY: Haworth.</t>
+  </si>
+  <si>
+    <t>Lombardi, E. L., Wilchins, R. A., Priesing, D., &amp; Malouf, D. (2001). Gender violence: Transgender experiences with violence and discrimination. Journal of Homosexuality, 42, 89-101.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">McWilliam, S., Leonard, L., Medd, E., &amp; members of the Ontario Women and HIV Working Group. (2007). HIV prevention in Ontario: Transgendered people. Retrieved May 20, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.health.gov.on.ca/english/providers/pub/aids/factsheets/hiv_web_fs_women_trans.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Minkler, M. (2005). Community-based research partnerships: Challenges and opportunities. Journal of Urban Health, 82(Suppl. 2) ii3–12.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minter, S., &amp; Daley, C. (2003). Trans realities: A legal needs assessment of San Francisco transgender communities. Retrieved May 18, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://transgenderlawcenter.org/trans/pdfs/Trans%20Realities%20Final%20Final.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Namaste, V. K. (2000). Invisible lives: The erasure of transsexual and transgendered people. Chicago: University of Chicago Press.</t>
+  </si>
+  <si>
+    <t>Nemoto, T., Operario, D., Keatley, J., Nguyen, H., &amp; Sugano, E. (2005). Promoting health for transgender women: Transgender resources and neighborhood space (TRANS) program in San Francisco. American Journal of Public Health, 95, 382-384.</t>
+  </si>
+  <si>
+    <t>Raphael, D. (2004). Social determinants of health: Canadian perspectives. Toronto: Canadian Scholars’ Press.</t>
+  </si>
+  <si>
+    <t>Reback, C. J., &amp; Lombardi, E. (2001). HIV risk behaviors of male-to-female transgenders in a community-based harm reduction program. In W. O. Bockting &amp; S. Kirk (Eds.), Transgender and HIV: Risks, prevention and care (pp. 59-68). Philadelphia: Haworth.</t>
+  </si>
+  <si>
+    <t>Serano, J. (2007). Whipping girl: A transsexual woman on sexism and the scapegoating of femininity. Emeryville, CA: Seal.</t>
+  </si>
+  <si>
+    <t>Sperber, J., Landers, S., &amp; Lawrence, S. (2005). Access to health care for transgendered persons: Results of a needs assessment in Boston. International Journal of Transgenderism, 8, 75-91.</t>
+  </si>
+  <si>
+    <t>Sugano, E., Nemoto, T., &amp; Operario, D. (2006). The impact of exposure to transphobia on HIV risk behavior in a sample of transgendered women of color in San Francisco. AIDS and Behavior, 10, 217-225.</t>
+  </si>
+  <si>
+    <t>Sumartojo, E. (2000). Structural factors in HIV prevention: Concepts, examples, and implications for research. AIDS,14(Suppl. 1), S3-S10.</t>
+  </si>
+  <si>
+    <t>Tattersall, C., Watts, A., &amp; Vernon, S. (2007). Mind mapping as a tool in qualitative research. Nursingtimes.net, 203, 32-33.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taylor, C. (2006). Nowhere near enough: A needs assessment of health and safety services for transgender and two spirit people in Manitoba and Northwestern Ontario. [Microsoft Word document retrieved May 20, 2009, from. Winnipeg, Manitoba: Nine Circles Community Health Centre. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.ucalgary.ca/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="AdvP4C4E74"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ptrembla/gaylesbian-bisexual/01b-fulltext-lesbian-transgender.htm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">World Health Organization. (1948). Preamble to the constitution of the World Health Organization as adopted by the International Health Conference, New York, 19 June-22 July, 1946; signed on 22 July 1946 by the representatives of 61 States (Official Records of the World Health Organization, no. 2, p. 100) and entered into force on 7 April 1948. Retrieved May 18, 2009, from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.who.int/suggestions/faq/en/</t>
+    </r>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>Xavier, J.M., Hannold, J.A., Bradford, J., &amp; Simmons, R.</t>
+  </si>
+  <si>
+    <t>(2007). The health, health-related needs, and lifecourse experiences</t>
+  </si>
+  <si>
+    <t>of transgender Virginians. Retrieved May 18, 2009,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>http://www.vdh.virginia.gov/epidemiology/DiseasePre</t>
+    </r>
+  </si>
+  <si>
+    <t>vention/documents/pdf/THISFINALREPORTVol1.pdf</t>
+  </si>
+  <si>
+    <t>Glaser, B. G., &amp; Strauss, A. L. (1967). The discovery of grounded theory: Strategies for qualitative research. Chicago:Aldine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +642,42 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000066"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000066"/>
+      <name val="AdvPS586B"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000066"/>
+      <name val="AdvP4C4E74"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,10 +700,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,242 +1028,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="66" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="66" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="147.75" customWidth="1"/>
     <col min="2" max="2" width="123.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="66" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="66" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="66" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="66" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="66" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="66" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="66" customHeight="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="66" customHeight="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="66" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="66" customHeight="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="66" customHeight="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="66" customHeight="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="66" customHeight="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="66" customHeight="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="66" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="66" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="66" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="66" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="66" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="66" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="66" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="66" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="66" customHeight="1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="66" customHeight="1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="66" customHeight="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="66" customHeight="1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="66" customHeight="1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="66" customHeight="1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="66" customHeight="1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="66" customHeight="1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="66" customHeight="1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="66" customHeight="1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="66" customHeight="1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="66" customHeight="1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="66" customHeight="1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="66" customHeight="1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="66" customHeight="1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="66" customHeight="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="66" customHeight="1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="66" customHeight="1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="66" customHeight="1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="66" customHeight="1">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="66" customHeight="1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="66" customHeight="1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="66" customHeight="1">
       <c r="A45" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="66" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="66" customHeight="1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="66" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="66" customHeight="1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="66" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="66" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="66" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="66" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="66" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="66" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="66" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="66" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="66" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="66" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="66" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="66" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="66" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="66" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="66" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="66" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="66" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="66" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="66" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="66" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="66" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="66" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="66" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="66" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="66" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="66" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="66" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="66" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="66" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="66" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="66" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="66" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="66" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="66" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="66" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="66" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="66" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="66" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="66" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="66" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="66" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="66" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="66" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="66" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="66" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="66" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="66" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="66" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="66" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="66" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="66" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="66" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="66" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="66" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="66" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="66" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="66" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="66" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="66" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="66" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="66" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="66" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="66" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="66" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="66" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="66" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="66" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="66" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="66" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
